--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269013.5780559886</v>
+        <v>268291.4006641767</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4968231.017992426</v>
+        <v>5061214.838788686</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22289395.19939269</v>
+        <v>22380528.64215509</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4040989.538948528</v>
+        <v>3999533.577061756</v>
       </c>
     </row>
     <row r="11">
@@ -1859,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.734941765055619</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1926,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.734941765055619</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1974,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1986,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
     </row>
     <row r="19">
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.73494176505562</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.86547882798917</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X20" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2169,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>34.86547882798917</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2278,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2363,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T24" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2488,19 +2490,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.1792675346265591</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W25" t="n">
-        <v>9.977552361264271</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2631,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.55470292302859</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2691,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W27" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>19.72731862540289</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2752,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.977552361264271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F29" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G29" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2883,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2989,34 +2991,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="32">
@@ -3032,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="X32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>23.55470292302859</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3193,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>39.58387696184059</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="F34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>9.977552361264271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3308,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3360,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3405,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3424,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="D37" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3627,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="U39" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3703,7 +3705,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>19.72731862540288</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>39.58387696184059</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3873,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>34.86547882798917</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="43">
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>9.977552361264268</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="46">
@@ -4147,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>4.057652175311736</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.028826087655867</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C20" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D20" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E20" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F20" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K20" t="n">
-        <v>42.35474834916943</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L20" t="n">
-        <v>42.35474834916943</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M20" t="n">
-        <v>42.35474834916943</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N20" t="n">
-        <v>79.95943146291799</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O20" t="n">
-        <v>119.1474696551402</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P20" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q20" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R20" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S20" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T20" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U20" t="n">
-        <v>158.3355078473624</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V20" t="n">
-        <v>158.3355078473624</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W20" t="n">
-        <v>123.1178524655551</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X20" t="n">
-        <v>83.13413836268582</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y20" t="n">
-        <v>83.13413836268582</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38.38436553875449</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C21" t="n">
-        <v>38.38436553875449</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D21" t="n">
-        <v>38.38436553875449</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E21" t="n">
-        <v>38.38436553875449</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F21" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G21" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H21" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I21" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J21" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K21" t="n">
-        <v>42.35474834916943</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L21" t="n">
-        <v>81.54278654139161</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M21" t="n">
-        <v>120.7308247336138</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N21" t="n">
-        <v>120.7308247336138</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O21" t="n">
-        <v>120.7308247336138</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P21" t="n">
-        <v>120.7308247336138</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3517937444931</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S21" t="n">
-        <v>118.3517937444931</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T21" t="n">
-        <v>118.3517937444931</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U21" t="n">
-        <v>78.36807964162378</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V21" t="n">
-        <v>38.38436553875449</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W21" t="n">
-        <v>38.38436553875449</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X21" t="n">
-        <v>38.38436553875449</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y21" t="n">
-        <v>38.38436553875449</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.166710156947247</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C22" t="n">
-        <v>3.166710156947247</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D22" t="n">
-        <v>3.166710156947247</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E22" t="n">
-        <v>3.166710156947247</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F22" t="n">
-        <v>3.166710156947247</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="G22" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L22" t="n">
-        <v>30.48083516466022</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M22" t="n">
-        <v>69.6688733568824</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N22" t="n">
-        <v>108.8569115491046</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O22" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P22" t="n">
-        <v>133.1961881840039</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.1961881840039</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="R22" t="n">
-        <v>93.21247408113457</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="S22" t="n">
-        <v>93.21247408113457</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="T22" t="n">
-        <v>93.21247408113457</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="U22" t="n">
-        <v>93.21247408113457</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="V22" t="n">
-        <v>83.13413836268582</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="W22" t="n">
-        <v>43.15042425981653</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="X22" t="n">
-        <v>3.166710156947247</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.166710156947247</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C23" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K23" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L23" t="n">
-        <v>81.54278654139161</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M23" t="n">
-        <v>120.7308247336138</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N23" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O23" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P23" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q23" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R23" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S23" t="n">
-        <v>78.36807964162378</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T23" t="n">
-        <v>78.36807964162378</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U23" t="n">
-        <v>38.38436553875449</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V23" t="n">
-        <v>38.38436553875449</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W23" t="n">
-        <v>38.38436553875449</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X23" t="n">
-        <v>38.38436553875449</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C24" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D24" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E24" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F24" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K24" t="n">
-        <v>3.166710156947247</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L24" t="n">
-        <v>42.35474834916943</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M24" t="n">
-        <v>79.95943146291799</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N24" t="n">
-        <v>119.1474696551402</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O24" t="n">
-        <v>158.3355078473624</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S24" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T24" t="n">
-        <v>123.1178524655551</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U24" t="n">
-        <v>83.13413836268582</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V24" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W24" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X24" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y24" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="C25" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="D25" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="E25" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="F25" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="G25" t="n">
-        <v>28.30602982030574</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="H25" t="n">
-        <v>28.30602982030574</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="I25" t="n">
-        <v>28.30602982030574</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="J25" t="n">
-        <v>28.30602982030574</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K25" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L25" t="n">
-        <v>55.62015482801871</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M25" t="n">
-        <v>94.80819302024089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N25" t="n">
-        <v>133.9962312124631</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O25" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P25" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q25" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R25" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S25" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T25" t="n">
-        <v>118.3517937444931</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U25" t="n">
-        <v>78.36807964162378</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V25" t="n">
-        <v>38.38436553875449</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="W25" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="X25" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>123.1178524655551</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C26" t="n">
-        <v>123.1178524655551</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D26" t="n">
-        <v>123.1178524655551</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E26" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F26" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K26" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L26" t="n">
-        <v>42.35474834916943</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M26" t="n">
-        <v>81.54278654139161</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N26" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O26" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.166710156947247</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C27" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D27" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E27" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F27" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G27" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H27" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K27" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L27" t="n">
-        <v>81.54278654139161</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M27" t="n">
-        <v>119.1474696551402</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N27" t="n">
-        <v>119.1474696551402</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O27" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P27" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V27" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W27" t="n">
-        <v>123.1178524655551</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X27" t="n">
-        <v>83.13413836268582</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y27" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.30602982030574</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C28" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D28" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E28" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F28" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G28" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H28" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I28" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J28" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K28" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L28" t="n">
-        <v>55.62015482801871</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M28" t="n">
-        <v>94.80819302024089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N28" t="n">
-        <v>133.9962312124631</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O28" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P28" t="n">
-        <v>158.3355078473624</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q28" t="n">
-        <v>158.3355078473624</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="R28" t="n">
-        <v>158.3355078473624</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="S28" t="n">
-        <v>158.3355078473624</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="T28" t="n">
-        <v>158.3355078473624</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="U28" t="n">
-        <v>158.3355078473624</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="V28" t="n">
-        <v>118.3517937444931</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="W28" t="n">
-        <v>78.36807964162378</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="X28" t="n">
-        <v>38.38436553875449</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="Y28" t="n">
-        <v>28.30602982030574</v>
+        <v>50.00249887508694</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.36807964162378</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C29" t="n">
-        <v>78.36807964162378</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D29" t="n">
-        <v>78.36807964162378</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="E29" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F29" t="n">
-        <v>38.38436553875449</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K29" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L29" t="n">
-        <v>81.54278654139161</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M29" t="n">
-        <v>120.7308247336138</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N29" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O29" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P29" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q29" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R29" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S29" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T29" t="n">
-        <v>78.36807964162378</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U29" t="n">
-        <v>78.36807964162378</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V29" t="n">
-        <v>78.36807964162378</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W29" t="n">
-        <v>78.36807964162378</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X29" t="n">
-        <v>78.36807964162378</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.36807964162378</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C30" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D30" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E30" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F30" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K30" t="n">
-        <v>40.77139327069581</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L30" t="n">
-        <v>40.77139327069581</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M30" t="n">
-        <v>79.95943146291799</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N30" t="n">
-        <v>119.1474696551402</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O30" t="n">
-        <v>158.3355078473624</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P30" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S30" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T30" t="n">
-        <v>83.13413836268582</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U30" t="n">
-        <v>83.13413836268582</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V30" t="n">
-        <v>83.13413836268582</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W30" t="n">
-        <v>83.13413836268582</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X30" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y30" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L31" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M31" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N31" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P31" t="n">
-        <v>130.4472581485427</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.46354404567346</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R31" t="n">
-        <v>50.47982994280417</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S31" t="n">
-        <v>10.49611583993489</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T31" t="n">
-        <v>3.166710156947247</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U31" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V31" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W31" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X31" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>43.15042425981653</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C32" t="n">
-        <v>43.15042425981653</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D32" t="n">
-        <v>43.15042425981653</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E32" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F32" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G32" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K32" t="n">
-        <v>3.166710156947247</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L32" t="n">
-        <v>42.35474834916943</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M32" t="n">
-        <v>81.54278654139161</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N32" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O32" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U32" t="n">
-        <v>123.1178524655551</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V32" t="n">
-        <v>83.13413836268582</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W32" t="n">
-        <v>83.13413836268582</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X32" t="n">
-        <v>43.15042425981653</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y32" t="n">
-        <v>43.15042425981653</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>158.3355078473624</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="C33" t="n">
-        <v>118.3517937444931</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="D33" t="n">
-        <v>78.36807964162378</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="E33" t="n">
-        <v>43.15042425981653</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="F33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="G33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="H33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L33" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M33" t="n">
-        <v>81.54278654139161</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N33" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R33" t="n">
-        <v>158.3355078473624</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="S33" t="n">
-        <v>158.3355078473624</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="T33" t="n">
-        <v>158.3355078473624</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="U33" t="n">
-        <v>158.3355078473624</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="V33" t="n">
-        <v>158.3355078473624</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="W33" t="n">
-        <v>158.3355078473624</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="X33" t="n">
-        <v>158.3355078473624</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="Y33" t="n">
-        <v>158.3355078473624</v>
+        <v>2.961334673611005</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>158.3355078473624</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="C34" t="n">
-        <v>158.3355078473624</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="D34" t="n">
-        <v>158.3355078473624</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="E34" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F34" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G34" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H34" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I34" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J34" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K34" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L34" t="n">
-        <v>55.62015482801871</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M34" t="n">
-        <v>94.80819302024089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N34" t="n">
-        <v>133.9962312124631</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U34" t="n">
-        <v>158.3355078473624</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="V34" t="n">
-        <v>158.3355078473624</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="W34" t="n">
-        <v>158.3355078473624</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X34" t="n">
-        <v>158.3355078473624</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="Y34" t="n">
-        <v>158.3355078473624</v>
+        <v>24.88271652639035</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>123.1178524655551</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C35" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D35" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L35" t="n">
-        <v>3.166710156947247</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M35" t="n">
-        <v>40.77139327069581</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N35" t="n">
-        <v>79.95943146291799</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O35" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P35" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q35" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R35" t="n">
-        <v>123.1178524655551</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S35" t="n">
-        <v>123.1178524655551</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T35" t="n">
-        <v>123.1178524655551</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U35" t="n">
-        <v>123.1178524655551</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V35" t="n">
-        <v>123.1178524655551</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W35" t="n">
-        <v>123.1178524655551</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X35" t="n">
-        <v>123.1178524655551</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y35" t="n">
-        <v>123.1178524655551</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C36" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D36" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E36" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F36" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G36" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H36" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L36" t="n">
-        <v>3.166710156947247</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M36" t="n">
-        <v>40.77139327069581</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N36" t="n">
-        <v>79.95943146291799</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O36" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P36" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S36" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T36" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U36" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V36" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W36" t="n">
-        <v>118.3517937444931</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X36" t="n">
-        <v>118.3517937444931</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y36" t="n">
-        <v>118.3517937444931</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>133.1961881840039</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="C37" t="n">
-        <v>133.1961881840039</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D37" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E37" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F37" t="n">
-        <v>13.245045875396</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L37" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M37" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N37" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S37" t="n">
-        <v>133.1961881840039</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T37" t="n">
-        <v>133.1961881840039</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U37" t="n">
-        <v>133.1961881840039</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="V37" t="n">
-        <v>133.1961881840039</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="W37" t="n">
-        <v>133.1961881840039</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X37" t="n">
-        <v>133.1961881840039</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.1961881840039</v>
+        <v>24.88271652639035</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.166710156947247</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C38" t="n">
-        <v>3.166710156947247</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D38" t="n">
-        <v>3.166710156947247</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E38" t="n">
-        <v>3.166710156947247</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F38" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G38" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H38" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K38" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L38" t="n">
-        <v>81.54278654139161</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M38" t="n">
-        <v>120.7308247336138</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N38" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q38" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R38" t="n">
-        <v>108.260178376266</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S38" t="n">
-        <v>83.13413836268582</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T38" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U38" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V38" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W38" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X38" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y38" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L39" t="n">
-        <v>42.35474834916943</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M39" t="n">
-        <v>81.54278654139161</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N39" t="n">
-        <v>120.7308247336138</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O39" t="n">
-        <v>120.7308247336138</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P39" t="n">
-        <v>120.7308247336138</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S39" t="n">
-        <v>78.36807964162378</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T39" t="n">
-        <v>38.38436553875449</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U39" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V39" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.30602982030574</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="C40" t="n">
-        <v>28.30602982030574</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="D40" t="n">
-        <v>28.30602982030574</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="E40" t="n">
-        <v>28.30602982030574</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="F40" t="n">
-        <v>28.30602982030574</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="G40" t="n">
-        <v>28.30602982030574</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="H40" t="n">
-        <v>28.30602982030574</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="I40" t="n">
-        <v>28.30602982030574</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="J40" t="n">
-        <v>28.30602982030574</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="K40" t="n">
-        <v>28.30602982030574</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L40" t="n">
-        <v>55.62015482801871</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M40" t="n">
-        <v>94.80819302024089</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N40" t="n">
-        <v>133.9962312124631</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O40" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P40" t="n">
-        <v>155.5865778119012</v>
+        <v>107.6111710058034</v>
       </c>
       <c r="Q40" t="n">
-        <v>148.2571721289136</v>
+        <v>107.6111710058034</v>
       </c>
       <c r="R40" t="n">
-        <v>148.2571721289136</v>
+        <v>107.6111710058034</v>
       </c>
       <c r="S40" t="n">
-        <v>148.2571721289136</v>
+        <v>107.6111710058034</v>
       </c>
       <c r="T40" t="n">
-        <v>148.2571721289136</v>
+        <v>107.6111710058034</v>
       </c>
       <c r="U40" t="n">
-        <v>148.2571721289136</v>
+        <v>107.6111710058034</v>
       </c>
       <c r="V40" t="n">
-        <v>148.2571721289136</v>
+        <v>107.6111710058034</v>
       </c>
       <c r="W40" t="n">
-        <v>108.2734580260443</v>
+        <v>79.74245862164571</v>
       </c>
       <c r="X40" t="n">
-        <v>68.28974392317502</v>
+        <v>51.87374623748799</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.28974392317502</v>
+        <v>31.94716176738407</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>83.13413836268582</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C41" t="n">
-        <v>83.13413836268582</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D41" t="n">
-        <v>83.13413836268582</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E41" t="n">
-        <v>83.13413836268582</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F41" t="n">
-        <v>83.13413836268582</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G41" t="n">
-        <v>83.13413836268582</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H41" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K41" t="n">
-        <v>42.35474834916943</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L41" t="n">
-        <v>81.54278654139161</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M41" t="n">
-        <v>120.7308247336138</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N41" t="n">
-        <v>120.7308247336138</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O41" t="n">
-        <v>120.7308247336138</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W41" t="n">
-        <v>123.1178524655551</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X41" t="n">
-        <v>83.13413836268582</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y41" t="n">
-        <v>83.13413836268582</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K42" t="n">
-        <v>40.77139327069581</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L42" t="n">
-        <v>40.77139327069581</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M42" t="n">
-        <v>79.95943146291799</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N42" t="n">
-        <v>119.1474696551402</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U42" t="n">
-        <v>123.1178524655551</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V42" t="n">
-        <v>123.1178524655551</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W42" t="n">
-        <v>83.13413836268582</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X42" t="n">
-        <v>83.13413836268582</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y42" t="n">
-        <v>43.15042425981653</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.22875997826529</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C43" t="n">
-        <v>13.245045875396</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L43" t="n">
-        <v>30.48083516466022</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M43" t="n">
-        <v>69.6688733568824</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N43" t="n">
-        <v>108.8569115491046</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R43" t="n">
-        <v>133.1961881840039</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S43" t="n">
-        <v>133.1961881840039</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T43" t="n">
-        <v>133.1961881840039</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U43" t="n">
-        <v>133.1961881840039</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V43" t="n">
-        <v>93.21247408113457</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W43" t="n">
-        <v>93.21247408113457</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X43" t="n">
-        <v>93.21247408113457</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.21247408113457</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
   </sheetData>
@@ -9164,19 +9166,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>222.0595851106659</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>237.6565638208974</v>
       </c>
       <c r="M17" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>231.3827976622762</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>232.067945487372</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9249,19 +9251,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>144.1037679877036</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>133.3114461490186</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>144.4863932953546</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>141.9515081517068</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9325,16 +9327,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>136.7748251321484</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>140.8955180132904</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>129.6552785309185</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>140.4262725175281</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9401,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>259.6737280068211</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N20" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>270.8168727171101</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>177.4253159361996</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L21" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.9663024837473</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,13 +9564,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N22" t="n">
-        <v>167.2694214270738</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9638,19 +9640,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>275.3502919318278</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M23" t="n">
-        <v>269.9301101891133</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N23" t="n">
-        <v>267.3975919943167</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P23" t="n">
         <v>231.2329957552695</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L24" t="n">
-        <v>178.1382567417148</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M24" t="n">
-        <v>180.1185623197441</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N24" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9802,10 +9804,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N25" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9875,22 +9877,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>259.6737280068211</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M26" t="n">
-        <v>269.9301101891133</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N26" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>270.8168727171101</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>177.4253159361996</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L27" t="n">
-        <v>178.1382567417148</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M27" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>179.5656510478621</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10039,10 +10041,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N28" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10112,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>259.6737280068211</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L29" t="n">
-        <v>275.3502919318278</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M29" t="n">
-        <v>269.9301101891133</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N29" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>170.9255890451739</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O30" t="n">
-        <v>182.180121406285</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10276,10 +10278,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N31" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10349,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L32" t="n">
-        <v>275.3502919318278</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M32" t="n">
-        <v>269.9301101891133</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N32" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P32" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10431,16 +10433,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>178.1382567417148</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M33" t="n">
-        <v>181.7179108838589</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N33" t="n">
-        <v>169.3262404810591</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O33" t="n">
-        <v>182.180121406285</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10513,10 +10515,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N34" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10589,19 +10591,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M35" t="n">
-        <v>268.3307616249986</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N35" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>269.6820883835273</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P35" t="n">
-        <v>270.8168727171101</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10668,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M36" t="n">
-        <v>180.1185623197441</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N36" t="n">
-        <v>170.9255890451739</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O36" t="n">
-        <v>182.180121406285</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10750,10 +10752,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N37" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10823,19 +10825,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>259.6737280068211</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L38" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>269.9301101891133</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N38" t="n">
-        <v>267.3975919943167</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P38" t="n">
         <v>231.2329957552695</v>
@@ -10905,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>178.1382567417148</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M39" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>170.9255890451739</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q39" t="n">
-        <v>177.9663024837473</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10987,10 +10989,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N40" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11060,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>259.6737280068211</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L41" t="n">
-        <v>275.3502919318278</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M41" t="n">
-        <v>269.9301101891133</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
@@ -11075,7 +11077,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>269.2175241529953</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>175.8259673720848</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M42" t="n">
-        <v>181.7179108838589</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N42" t="n">
-        <v>170.9255890451739</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O42" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11221,13 +11223,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N43" t="n">
-        <v>167.2694214270738</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -11297,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
@@ -11312,7 +11314,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -11388,13 +11390,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,16 +11460,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23747,13 +23749,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>337.5050680500818</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>208.5061555047206</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>10.2143475895569</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>147.8993838754644</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23814,7 +23816,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>145.7101237995831</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23862,7 +23864,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>198.1949946291363</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23874,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>203.8032511377922</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>203.712961711619</v>
       </c>
     </row>
     <row r="19">
@@ -23932,7 +23934,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>84.19230918600908</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23944,13 +23946,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>284.5840875914353</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>250.1679092581427</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>284.5532642709057</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23981,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24023,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>228.7793004236057</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>314.3754898894238</v>
+        <v>323.6206775227822</v>
       </c>
       <c r="X20" t="n">
-        <v>330.1472237166284</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24057,7 +24059,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>110.2037335653947</v>
+        <v>122.502859909153</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,16 +24104,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>180.1526940088467</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>154.2116889873065</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>142.3706881638279</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24166,13 +24168,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,16 +24186,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>242.1600909625637</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>198.7397416029705</v>
       </c>
     </row>
     <row r="23">
@@ -24209,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>327.0930163603668</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24251,16 +24253,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>211.7617759459959</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>345.4298064291826</v>
       </c>
       <c r="Y23" t="n">
-        <v>351.3724598280644</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>126.9493066880268</v>
+        <v>142.2318894005809</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,13 +24293,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24333,16 +24335,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T24" t="n">
-        <v>165.2992498668324</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24376,19 +24378,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>167.8117118238322</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>134.6371472471234</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>212.5537663619874</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W25" t="n">
-        <v>276.5454459753267</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>347.8683628354914</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>330.3817473713965</v>
       </c>
       <c r="E26" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>375.7188605532945</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24519,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>65.84192992838649</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24579,16 +24581,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W27" t="n">
-        <v>216.8295043329304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>160.1046615565344</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>139.6567958383117</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24640,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,16 +24660,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.6071009908305</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24686,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F29" t="n">
-        <v>367.2921687798708</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G29" t="n">
-        <v>380.4372586871459</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24728,13 +24730,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>227.04435865855</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>165.2992498668324</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>181.471690954191</v>
       </c>
       <c r="Y30" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24877,34 +24879,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>263.8702699959815</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="32">
@@ -24920,19 +24922,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>327.0930163603668</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24971,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>216.4801740798473</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>324.9396744681266</v>
       </c>
       <c r="X32" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,16 +24998,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>122.7796016274118</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>76.60313122961455</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25081,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>106.8500856847286</v>
+        <v>123.9852032860598</v>
       </c>
       <c r="F34" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>152.2496201461753</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25129,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>358.4325474141941</v>
       </c>
       <c r="C35" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25196,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>124.9943383277053</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25208,16 +25210,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>138.9431583895512</v>
       </c>
       <c r="C36" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25248,10 +25250,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>77.36996540850728</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>60.57395719080255</v>
+        <v>75.85653990335669</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25293,10 +25295,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25312,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>144.7980617381184</v>
       </c>
       <c r="D37" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25360,13 +25362,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>382.574751492425</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>184.145289972801</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>183.5119726022908</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25515,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>160.580851732981</v>
+        <v>175.8634344455351</v>
       </c>
       <c r="U39" t="n">
-        <v>191.0759032529857</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.2481032200967</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.90593162553662</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>246.9391213747504</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X40" t="n">
-        <v>186.1257784271966</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>198.8573347266919</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>314.3754898894238</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>330.1472237166284</v>
+        <v>347.1647481942382</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>126.9493066880268</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25761,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>191.0759032529857</v>
+        <v>203.375029596744</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>212.111106199079</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>166.0988188154638</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="43">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>138.6379206569481</v>
+        <v>126.0491205339815</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25843,7 +25845,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>212.5537663619874</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>192.964362157464</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25922,7 +25924,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>305.1859059859041</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>229.1286306766888</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="46">
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>142.3706881638279</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>70.79282763244194</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>333272.9571474838</v>
+        <v>335003.3934319732</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>367121.7595465881</v>
+        <v>355780.7069370191</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>367121.7595465879</v>
+        <v>357442.2063552686</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>367121.7595465879</v>
+        <v>357442.2063552688</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>367121.7595465879</v>
+        <v>357442.2063552685</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>367121.7595465879</v>
+        <v>357442.2063552685</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>367121.7595465881</v>
+        <v>357442.2063552686</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>367121.7595465881</v>
+        <v>357442.2063552685</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>367121.7595465881</v>
+        <v>355780.7069370193</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>333272.9571474838</v>
+        <v>355780.7069370191</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="C2" t="n">
         <v>48378.33248915088</v>
       </c>
       <c r="D2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="E2" t="n">
         <v>48378.33248915088</v>
       </c>
       <c r="F2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="G2" t="n">
-        <v>48378.33248915087</v>
+        <v>48629.44261830625</v>
       </c>
       <c r="H2" t="n">
-        <v>53290.25974031939</v>
+        <v>51644.51686548873</v>
       </c>
       <c r="I2" t="n">
-        <v>53290.25974031939</v>
+        <v>51885.6233062447</v>
       </c>
       <c r="J2" t="n">
-        <v>53290.25974031939</v>
+        <v>51885.6233062447</v>
       </c>
       <c r="K2" t="n">
-        <v>53290.2597403194</v>
+        <v>51885.62330624468</v>
       </c>
       <c r="L2" t="n">
-        <v>53290.25974031939</v>
+        <v>51885.62330624471</v>
       </c>
       <c r="M2" t="n">
-        <v>53290.25974031939</v>
+        <v>51885.6233062447</v>
       </c>
       <c r="N2" t="n">
-        <v>53290.25974031939</v>
+        <v>51885.62330624471</v>
       </c>
       <c r="O2" t="n">
-        <v>53290.2597403194</v>
+        <v>51644.51686548872</v>
       </c>
       <c r="P2" t="n">
-        <v>48378.33248915087</v>
+        <v>51644.51686548873</v>
       </c>
     </row>
     <row r="3">
@@ -26378,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
-        <v>10680.08625919725</v>
+        <v>6381.133168403663</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>523.793652481103</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5590.376790797369</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="C4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="D4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="E4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="F4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="G4" t="n">
-        <v>5375.370276572321</v>
+        <v>5405.545965776901</v>
       </c>
       <c r="H4" t="n">
-        <v>5965.632368449411</v>
+        <v>5767.86485636782</v>
       </c>
       <c r="I4" t="n">
-        <v>5965.632368449411</v>
+        <v>5796.838410903221</v>
       </c>
       <c r="J4" t="n">
-        <v>5965.632368449411</v>
+        <v>5796.838410903221</v>
       </c>
       <c r="K4" t="n">
-        <v>5965.632368449411</v>
+        <v>5796.838410903221</v>
       </c>
       <c r="L4" t="n">
-        <v>5965.63236844941</v>
+        <v>5796.838410903221</v>
       </c>
       <c r="M4" t="n">
-        <v>5965.632368449411</v>
+        <v>5796.838410903221</v>
       </c>
       <c r="N4" t="n">
-        <v>5965.632368449411</v>
+        <v>5796.838410903221</v>
       </c>
       <c r="O4" t="n">
-        <v>5965.632368449411</v>
+        <v>5767.86485636782</v>
       </c>
       <c r="P4" t="n">
-        <v>5375.370276572321</v>
+        <v>5767.86485636782</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>119.7598311936668</v>
       </c>
       <c r="H5" t="n">
-        <v>2406.699719279908</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="I5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="J5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="K5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="L5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="M5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="N5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="O5" t="n">
-        <v>2406.699719279908</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9375.362212578562</v>
+        <v>9375.362212578555</v>
       </c>
       <c r="C6" t="n">
         <v>9375.362212578562</v>
       </c>
       <c r="D6" t="n">
-        <v>9375.362212578555</v>
+        <v>9375.362212578562</v>
       </c>
       <c r="E6" t="n">
         <v>43002.96221257856</v>
       </c>
       <c r="F6" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="G6" t="n">
-        <v>43002.96221257855</v>
+        <v>42564.26225994232</v>
       </c>
       <c r="H6" t="n">
-        <v>34237.84139339282</v>
+        <v>37937.80513608369</v>
       </c>
       <c r="I6" t="n">
-        <v>44917.92765259008</v>
+        <v>43887.51770703316</v>
       </c>
       <c r="J6" t="n">
-        <v>44917.92765259008</v>
+        <v>44411.31135951426</v>
       </c>
       <c r="K6" t="n">
-        <v>44917.92765259008</v>
+        <v>44411.31135951424</v>
       </c>
       <c r="L6" t="n">
-        <v>44917.92765259008</v>
+        <v>44411.31135951426</v>
       </c>
       <c r="M6" t="n">
-        <v>44917.92765259008</v>
+        <v>44411.31135951426</v>
       </c>
       <c r="N6" t="n">
-        <v>44917.92765259008</v>
+        <v>44411.31135951426</v>
       </c>
       <c r="O6" t="n">
-        <v>44917.92765259008</v>
+        <v>44318.93830448735</v>
       </c>
       <c r="P6" t="n">
-        <v>43002.96221257855</v>
+        <v>38728.56151368999</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
   </sheetData>
@@ -27024,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>23.65055712894552</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.65055712894552</v>
       </c>
     </row>
   </sheetData>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>23.65055712894552</v>
       </c>
     </row>
   </sheetData>
@@ -35884,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36121,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N20" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,13 +36284,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M22" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N22" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O22" t="n">
         <v>24.58512791403967</v>
@@ -36358,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M23" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N23" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L24" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M24" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36522,10 +36524,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O25" t="n">
         <v>24.58512791403967</v>
@@ -36595,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M26" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N26" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L27" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M27" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,10 +36761,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O28" t="n">
         <v>24.58512791403967</v>
@@ -36832,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L29" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M29" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N29" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,10 +36998,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O31" t="n">
         <v>24.58512791403967</v>
@@ -37069,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L32" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M32" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N32" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M33" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N33" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O33" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37233,10 +37235,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37309,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M35" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P35" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M36" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,10 +37472,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O37" t="n">
         <v>24.58512791403967</v>
@@ -37543,19 +37545,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N38" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M39" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,10 +37709,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O40" t="n">
         <v>24.58512791403967</v>
@@ -37780,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L41" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M41" t="n">
-        <v>39.58387696184059</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>37.98452839772582</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>37.98452839772582</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N42" t="n">
-        <v>39.58387696184059</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O42" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37941,13 +37943,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O43" t="n">
         <v>24.58512791403967</v>
@@ -38017,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
